--- a/results/Homeopathy_excluded/mod3.corrupt_salienceBYhealth.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod3.corrupt_salienceBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0874485246910426</v>
+        <v>0.0874478474739592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0330061576378328</v>
+        <v>0.0330060172469403</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0227576444528387</v>
+        <v>0.0227572423968483</v>
       </c>
       <c r="F2" t="n">
-        <v>0.152139404929247</v>
+        <v>0.15213845255107</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64946091728066</v>
+        <v>2.64945166875793</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00806202963243972</v>
+        <v>0.00806225029142037</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00722568243775956</v>
+        <v>-0.00722601498281071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0248036459098242</v>
+        <v>0.0248034650092258</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0558399351062993</v>
+        <v>-0.0558399130926927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0413885702307802</v>
+        <v>0.0413878831270712</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.291315335819143</v>
+        <v>-0.291330867688162</v>
       </c>
       <c r="H3" t="n">
-        <v>0.770810159555223</v>
+        <v>0.770798281791572</v>
       </c>
     </row>
   </sheetData>
